--- a/biology/Botanique/Étienne-Jean_Augier/Étienne-Jean_Augier.xlsx
+++ b/biology/Botanique/Étienne-Jean_Augier/Étienne-Jean_Augier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne-Jean_Augier</t>
+          <t>Étienne-Jean_Augier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Jean Augier est un homme politique français né le 15 janvier 1735 à Cognac (Charente) et mort le 20 juillet 1826 dans la même ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne-Jean_Augier</t>
+          <t>Étienne-Jean_Augier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne-Jean Augier est le fils de Philippe Augier, négociant en eau-de-vie (Augier (de)), créateur de la faïencerie de Cognac, et de Françoise Marie Brunet du Bocage. Il est le cousin de Philippe Augier de La Sauzaye et le gendre de Jean Martell.
 Négociant en eau-de-vie à Cognac, il est député du tiers état aux États généraux de 1789 pour le bailliage d'Angoulême. Bien que protestant, il n'embrasse pas les idées de la Révolution et siège à droite.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne-Jean_Augier</t>
+          <t>Étienne-Jean_Augier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur le 24 septembre 1814[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur le 24 septembre 1814.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tienne-Jean_Augier</t>
+          <t>Étienne-Jean_Augier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ « Augier Étienne-Jean », sur Base Léonore.
